--- a/excels/config/shop/mysterious_shop_config.xlsx
+++ b/excels/config/shop/mysterious_shop_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>全局出售物品</t>
   </si>
@@ -41,6 +41,12 @@
     <t>效果</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>物品稀有度</t>
+  </si>
+  <si>
     <t>前置需求物品</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t>GoodsKey</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>rarity</t>
   </si>
   <si>
     <t>pre_item</t>
@@ -1106,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,9 +1126,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,24 +1494,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5083333333333" customWidth="1"/>
-    <col min="2" max="4" width="13.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="23.675" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="23.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="34.8416666666667" customWidth="1"/>
+    <col min="2" max="6" width="13.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="23.675" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="23.5083333333333" customWidth="1"/>
+    <col min="11" max="11" width="34.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:9">
+    <row r="1" ht="39" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,623 +1524,755 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="2" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="3" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>100</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>100</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>100</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>100</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>100</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>100</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    <row r="16" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>100</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>100</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="17" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>100</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    <row r="18" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>100</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="19" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>100</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8" t="s">
+    <row r="20" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>100</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
+    <row r="21" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>100</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>100</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="8" t="s">
+    <row r="22" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="7">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>100</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>100</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>100</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>100</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>100</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>100</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>100</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>100</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>100</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>100</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
